--- a/data/trans_orig/dukeGLOBAL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/dukeGLOBAL-Edad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>48.52589010294453</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>51.25146587777687</v>
+        <v>51.25146587777689</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>48.74331390224149</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>48.80897567893575</v>
+        <v>48.75092367626614</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>49.31712591749766</v>
+        <v>49.39649262053559</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>47.97722189995391</v>
+        <v>47.98141607205608</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50.21566772313373</v>
+        <v>50.22975106554773</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>48.03486020044181</v>
+        <v>48.07046775468138</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>49.0580671304787</v>
+        <v>49.11890869487868</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>48.27363270294205</v>
+        <v>48.19489700175397</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>48.71331537399022</v>
+        <v>48.52366555427436</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>48.67436740313335</v>
+        <v>48.64011215725083</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>49.40608325823113</v>
+        <v>49.40402894358028</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>48.25331653641647</v>
+        <v>48.26904838745701</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>49.86395406308308</v>
+        <v>49.88964264375717</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>49.9919390003027</v>
+        <v>49.98503632002133</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>50.46041910974038</v>
+        <v>50.54692677148431</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>49.0555668999142</v>
+        <v>49.05591923735647</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>52.02236659611054</v>
+        <v>52.07902008643455</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>49.35344818487335</v>
+        <v>49.39366866919143</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>50.25692675377903</v>
+        <v>50.25830603683112</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>49.32358684547501</v>
+        <v>49.32284993687508</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>50.91672796970421</v>
+        <v>50.89219249053404</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>49.50237120632264</v>
+        <v>49.52885947486797</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>50.2220755743115</v>
+        <v>50.22597806725041</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>49.04632660788646</v>
+        <v>49.00009161690125</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>51.3207968794297</v>
+        <v>51.31580487096041</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>48.14497923894452</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>49.37459798069473</v>
+        <v>49.37459798069474</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>48.6183021566807</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>48.51295076672328</v>
+        <v>48.51261552543539</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>48.87492501773572</v>
+        <v>48.8603489329624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>47.31047348290326</v>
+        <v>47.30731279608433</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>48.10633978489467</v>
+        <v>48.11849005793021</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>47.45682047956308</v>
+        <v>47.46962065593168</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>47.88128216424089</v>
+        <v>47.91080476468779</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>47.70688840683</v>
+        <v>47.67175402274816</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>48.64238381730527</v>
+        <v>48.67485849949462</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>48.2084610842829</v>
+        <v>48.1862343960148</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>48.57770838959009</v>
+        <v>48.56817284983865</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>47.5955162864854</v>
+        <v>47.57922751686858</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>48.59388642338472</v>
+        <v>48.64171333867094</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>49.6195068370766</v>
+        <v>49.5265991346965</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>49.86143812374388</v>
+        <v>49.8107825120556</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>48.26969935490955</v>
+        <v>48.23837096772187</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49.82418384112572</v>
+        <v>49.84361083450075</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>48.7421111519814</v>
+        <v>48.68370926934336</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>49.00037135192913</v>
+        <v>49.02522874759529</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>48.63074891582701</v>
+        <v>48.60778868923158</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>50.02073078403705</v>
+        <v>49.97187460030529</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>48.98167751810477</v>
+        <v>48.98459323852126</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>49.3255212884497</v>
+        <v>49.30871234003791</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>48.30608581581242</v>
+        <v>48.29236008426032</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>49.71743116324446</v>
+        <v>49.74103786020947</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>46.74986039341568</v>
+        <v>46.66359084602808</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>47.58524951719637</v>
+        <v>47.5757238686219</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>46.98114839327215</v>
+        <v>46.97677821599269</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>47.75550716589921</v>
+        <v>47.77217035817929</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>46.92479187880549</v>
+        <v>46.87772798024535</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>47.46919909892497</v>
+        <v>47.47756323963404</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>47.06617082502994</v>
+        <v>47.06385381867346</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>48.49824836385092</v>
+        <v>48.48223770379071</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>47.03916633587325</v>
+        <v>46.97522268801323</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47.71189891927272</v>
+        <v>47.69933153588851</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>47.16727529758661</v>
+        <v>47.1629610208287</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>48.35573030697491</v>
+        <v>48.34428310203036</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>48.06326300448297</v>
+        <v>48.03244623371885</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>48.73794223014232</v>
+        <v>48.77580690152765</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>47.96788117315219</v>
+        <v>47.94835396527628</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>49.08383120368027</v>
+        <v>49.07806759963002</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>48.15422621125549</v>
+        <v>48.0531446083821</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>48.60093803315407</v>
+        <v>48.58840621472272</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>48.06345068924279</v>
+        <v>48.06067447037334</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>49.43701193621524</v>
+        <v>49.41191164010747</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>47.89449090714623</v>
+        <v>47.93066408698267</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>48.52970030450043</v>
+        <v>48.51740535386036</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>47.85583143804954</v>
+        <v>47.85752042694423</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>49.13518511493194</v>
+        <v>49.09682936254583</v>
       </c>
     </row>
     <row r="13">
@@ -1077,7 +1077,7 @@
         <v>45.85214968521791</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>47.89559786991433</v>
+        <v>47.89559786991434</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>46.23667977064889</v>
@@ -1089,7 +1089,7 @@
         <v>46.23469373473362</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>47.93650511267663</v>
+        <v>47.93650511267665</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>46.76301724908824</v>
@@ -1101,7 +1101,7 @@
         <v>46.04407527292128</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>47.91654347254993</v>
+        <v>47.91654347254991</v>
       </c>
     </row>
     <row r="14">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>46.49878377333488</v>
+        <v>46.52640064901681</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>47.4480691786476</v>
+        <v>47.35844813891295</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>45.22472121630184</v>
+        <v>45.25517364101253</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47.24641970366874</v>
+        <v>47.22569042590816</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>45.47044607244617</v>
+        <v>45.46622064205749</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>46.31337268556539</v>
+        <v>46.28412138804939</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>45.69670100909453</v>
+        <v>45.67967519355029</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>47.46752879568666</v>
+        <v>47.4786712836361</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>46.23852929075129</v>
+        <v>46.20023025689421</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>47.08122796457688</v>
+        <v>47.03264205029094</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45.61090175961078</v>
+        <v>45.60280368742163</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>47.50006224557784</v>
+        <v>47.51880504302896</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>47.87845239492609</v>
+        <v>47.86161005522374</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>48.66319580910332</v>
+        <v>48.64618042080091</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>46.51347919492246</v>
+        <v>46.48472960038241</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>48.56534472399653</v>
+        <v>48.47037823775931</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>46.99297533825975</v>
+        <v>46.97124426755119</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>47.5658015868491</v>
+        <v>47.57921470731758</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>46.79791134897705</v>
+        <v>46.78127940058653</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>48.3908494812523</v>
+        <v>48.37519664243865</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>47.2760899678843</v>
+        <v>47.28833469783076</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>47.98188550857194</v>
+        <v>47.93315971690879</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>46.46025456236925</v>
+        <v>46.44662136364921</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>48.32258391853613</v>
+        <v>48.3696418497147</v>
       </c>
     </row>
     <row r="16">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>45.79100609694328</v>
+        <v>45.77222996538806</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>47.74066404545413</v>
+        <v>47.77865650832212</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45.49465680473713</v>
+        <v>45.49443993700744</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>45.93669335536145</v>
+        <v>45.86424111737137</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>44.20104069811968</v>
+        <v>44.11440207383905</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>46.01687507758012</v>
+        <v>45.91591900755054</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>44.45401807177104</v>
+        <v>44.367410118457</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>45.67883169128059</v>
+        <v>45.72083184242806</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>45.29138151128205</v>
+        <v>45.1620953650301</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>47.08055281761248</v>
+        <v>47.07576969153541</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>45.1691177963604</v>
+        <v>45.15160827693968</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>46.0052086580657</v>
+        <v>45.98591441261005</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>47.48734610674389</v>
+        <v>47.48344424068991</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>49.22746575353182</v>
+        <v>49.20326604994973</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>46.90858053701902</v>
+        <v>46.93501271782011</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>47.34159620467164</v>
+        <v>47.27853562861138</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>45.90235978224219</v>
+        <v>45.79297924075189</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>47.54957385384471</v>
+        <v>47.51551471638</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>45.8545981306595</v>
+        <v>45.83135699840648</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>46.8316200066864</v>
+        <v>46.86162366036565</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>46.4394934763933</v>
+        <v>46.42243586608311</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>48.1801778550966</v>
+        <v>48.16872495910817</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>46.12943349403192</v>
+        <v>46.21995939618238</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>46.89268397624653</v>
+        <v>46.8626031775533</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>44.58966915038882</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>46.97173906264321</v>
+        <v>46.97173906264319</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>45.19963132065788</v>
@@ -1373,7 +1373,7 @@
         <v>45.59406165507171</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>46.91603365752788</v>
+        <v>46.91603365752786</v>
       </c>
     </row>
     <row r="20">
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>44.73559469481572</v>
+        <v>44.70465633066951</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>46.2602650179894</v>
+        <v>46.22807488908147</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>45.94291244078111</v>
+        <v>45.96953144731159</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>46.08824593309197</v>
+        <v>46.15849448254974</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>43.78199875084445</v>
+        <v>43.7833696041722</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>45.45932070582177</v>
+        <v>45.57259065382722</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>43.80663276814841</v>
+        <v>43.71608381256227</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>46.35049082230532</v>
+        <v>46.29699013718378</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>44.52302910986924</v>
+        <v>44.48036754624169</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>46.07336058415358</v>
+        <v>46.10675766932032</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>44.95025891475154</v>
+        <v>45.01806929400453</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>46.40669430025096</v>
+        <v>46.42345653515862</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>46.64077502749728</v>
+        <v>46.56830565642871</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>48.07653822286339</v>
+        <v>47.99309728823646</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>47.45208130305316</v>
+        <v>47.52610190264837</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>47.51132117341706</v>
+        <v>47.57940343124632</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>45.69362767099017</v>
+        <v>45.64061562933975</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>47.16941800883586</v>
+        <v>47.19322496359317</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>45.35944139886978</v>
+        <v>45.39784308874754</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>47.60182776384066</v>
+        <v>47.54780413331599</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>45.86602705908452</v>
+        <v>45.87642213838287</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>47.36391045107447</v>
+        <v>47.33251550822077</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>46.12648898675245</v>
+        <v>46.12326094568926</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>47.36346915656674</v>
+        <v>47.38092846531442</v>
       </c>
     </row>
     <row r="22">
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>42.66710553822723</v>
+        <v>42.57900108216499</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>44.30496291389011</v>
+        <v>44.3356271919474</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>43.82748464372051</v>
+        <v>43.79613682288357</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>44.75046984978998</v>
+        <v>44.66827754305261</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>41.20337890570541</v>
+        <v>41.18377263866846</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>45.3135843651217</v>
+        <v>45.34329745810287</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>42.83777301104573</v>
+        <v>42.77678051237936</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>43.18615956366829</v>
+        <v>43.15996446060708</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>42.1135253986511</v>
+        <v>42.00764509285</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>45.23904856785074</v>
+        <v>45.2214465314133</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>43.48181491307997</v>
+        <v>43.46096775537645</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>44.00552764772682</v>
+        <v>43.98929222295428</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>45.23081168295027</v>
+        <v>45.2109574191287</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>46.58761601691182</v>
+        <v>46.6870389659519</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>45.66350088341411</v>
+        <v>45.64597056748948</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>46.49311300157977</v>
+        <v>46.54470856033829</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>43.63178204254204</v>
+        <v>43.57427368637869</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>46.9716424361309</v>
+        <v>46.94788642679071</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>44.80440496552612</v>
+        <v>44.79020117267509</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>44.60663286865397</v>
+        <v>44.5435949789218</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>43.92590521756982</v>
+        <v>43.92831960172973</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>46.61976210165255</v>
+        <v>46.63092523680463</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>44.88260548648326</v>
+        <v>44.84470592562933</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>45.12466005666597</v>
+        <v>45.12390055541286</v>
       </c>
     </row>
     <row r="25">
@@ -1621,10 +1621,10 @@
         <v>46.88512814472551</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>48.00773144031606</v>
+        <v>48.00773144031605</v>
       </c>
       <c r="G25" s="5" t="n">
-        <v>46.52293674809259</v>
+        <v>46.5229367480926</v>
       </c>
       <c r="H25" s="5" t="n">
         <v>47.60480235823682</v>
@@ -1633,7 +1633,7 @@
         <v>46.47765039603425</v>
       </c>
       <c r="J25" s="5" t="n">
-        <v>47.62508446849494</v>
+        <v>47.62508446849493</v>
       </c>
       <c r="K25" s="5" t="n">
         <v>47.05785821845306</v>
@@ -1645,7 +1645,7 @@
         <v>46.67721858834163</v>
       </c>
       <c r="N25" s="5" t="n">
-        <v>47.81149674027627</v>
+        <v>47.81149674027626</v>
       </c>
     </row>
     <row r="26">
@@ -1656,40 +1656,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>47.33932048796888</v>
+        <v>47.31147184541169</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>48.15412057024983</v>
+        <v>48.15703061277248</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>46.63115854709203</v>
+        <v>46.63705816021719</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>47.72220071418381</v>
+        <v>47.69333348355847</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>46.20186022897757</v>
+        <v>46.20495640376781</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>47.32927924025051</v>
+        <v>47.35028713394439</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>46.22394962725504</v>
+        <v>46.25551455103071</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>47.35719761327616</v>
+        <v>47.39893852345308</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>46.84986550963301</v>
+        <v>46.85043749593664</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>47.81782459228336</v>
+        <v>47.80315400072966</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>46.50099235889027</v>
+        <v>46.50127119554906</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>47.61722930425368</v>
+        <v>47.60949922524942</v>
       </c>
     </row>
     <row r="27">
@@ -1700,40 +1700,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>47.89125912366187</v>
+        <v>47.86929049061957</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>48.66532681125882</v>
+        <v>48.63722678383294</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>47.13418770788815</v>
+        <v>47.12819367582205</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>48.31048970009913</v>
+        <v>48.28095038779072</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>46.7903746855938</v>
+        <v>46.81176203787442</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>47.84596579238981</v>
+        <v>47.86375453059456</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>46.72670704009585</v>
+        <v>46.72376474264691</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>47.84626618834594</v>
+        <v>47.87576591451918</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>47.25441942053771</v>
+        <v>47.25711350287192</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>48.1769832740467</v>
+        <v>48.18088056138084</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>46.84643526908238</v>
+        <v>46.82953563333692</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>48.00267666734905</v>
+        <v>47.98638625833717</v>
       </c>
     </row>
     <row r="28">
